--- a/timing data etc.xlsx
+++ b/timing data etc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\source\repos\TicTracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0E35B3-1923-4C72-8E3C-044923D2C0D4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD9AE20-9970-4319-A357-A274F0ABFDE8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1018A22C-AA7D-4120-80D2-6E2862F8BAD4}"/>
+    <workbookView xWindow="-25320" yWindow="450" windowWidth="25440" windowHeight="15390" firstSheet="2" activeTab="8" xr2:uid="{1018A22C-AA7D-4120-80D2-6E2862F8BAD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,10 @@
     <sheet name="10 samples per sec" sheetId="6" r:id="rId6"/>
     <sheet name="50 samples per sec" sheetId="7" r:id="rId7"/>
     <sheet name="100 samples per sec" sheetId="8" r:id="rId8"/>
+    <sheet name="10 ms ontime" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'10 ms ontime'!$B$2:$G$25</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'10 samples per sec'!$A$1:$J$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="244">
   <si>
     <t>getTempSensorEnabled: 0</t>
   </si>
@@ -698,6 +700,81 @@
   </si>
   <si>
     <t>elapsed</t>
+  </si>
+  <si>
+    <t>DEBUG</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>got FIFO's</t>
+  </si>
+  <si>
+    <t>Going 2 sleep on R intpt elapsed: 1620</t>
+  </si>
+  <si>
+    <t>Awaking from right interrupt after 80381 us (84</t>
+  </si>
+  <si>
+    <t>breaking</t>
+  </si>
+  <si>
+    <t>end true</t>
+  </si>
+  <si>
+    <t>process INT</t>
+  </si>
+  <si>
+    <t>fetching FIFO: 84</t>
+  </si>
+  <si>
+    <t>R,0.99,-0.00,0.00,-0.16</t>
+  </si>
+  <si>
+    <t>End of accel loop 99778</t>
+  </si>
+  <si>
+    <t>Going 2 sleep on L intpt elapsed: 1618</t>
+  </si>
+  <si>
+    <t>Awaking from left interrupt after 80340 us (84</t>
+  </si>
+  <si>
+    <t>L,1.00,-0.02,0.00,-0.02</t>
+  </si>
+  <si>
+    <t>End of accel loop 99700</t>
+  </si>
+  <si>
+    <t>Going 2 sleep on L intpt elapsed: 1625</t>
+  </si>
+  <si>
+    <t>Awaking fr L intpt after 78518 us (42</t>
+  </si>
+  <si>
+    <t>exit left sleep</t>
+  </si>
+  <si>
+    <t>L,1.00,-0.00,0.01,-0.01</t>
+  </si>
+  <si>
+    <t>End of accel loop 99085</t>
+  </si>
+  <si>
+    <t>Going 2 sleep on R intpt elapsed: 1625</t>
+  </si>
+  <si>
+    <t>Awaking from right interrupt after 79011 us (84</t>
+  </si>
+  <si>
+    <t>exit right sleep</t>
+  </si>
+  <si>
+    <t>R,0.99,-0.05,0.00,-0.14</t>
+  </si>
+  <si>
+    <t>End of accel loop 100072</t>
   </si>
 </sst>
 </file>
@@ -2058,7 +2135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59BFF1BA-FD7C-4F56-A086-B3F4E5C3075F}">
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
@@ -10594,4 +10671,945 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D967FD7E-4B9B-478D-817A-22DA95F80F66}">
+  <dimension ref="B2:N27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="43.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>563</v>
+      </c>
+      <c r="C2">
+        <v>28447848</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I2">
+        <v>563</v>
+      </c>
+      <c r="J2">
+        <v>76273090</v>
+      </c>
+      <c r="K2">
+        <v>9</v>
+      </c>
+      <c r="M2">
+        <v>9</v>
+      </c>
+      <c r="N2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>570</v>
+      </c>
+      <c r="C3">
+        <v>28449373</v>
+      </c>
+      <c r="D3">
+        <v>1535</v>
+      </c>
+      <c r="E3">
+        <f>D3-D2</f>
+        <v>1525</v>
+      </c>
+      <c r="G3" t="s">
+        <v>221</v>
+      </c>
+      <c r="I3">
+        <v>570</v>
+      </c>
+      <c r="J3">
+        <v>76274619</v>
+      </c>
+      <c r="K3">
+        <v>1538</v>
+      </c>
+      <c r="L3">
+        <f>K3-K2</f>
+        <v>1529</v>
+      </c>
+      <c r="M3">
+        <v>1538</v>
+      </c>
+      <c r="N3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>613</v>
+      </c>
+      <c r="C4">
+        <v>28449</v>
+      </c>
+      <c r="D4">
+        <v>1620</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E23" si="0">D4-D3</f>
+        <v>85</v>
+      </c>
+      <c r="F4" t="s">
+        <v>219</v>
+      </c>
+      <c r="G4" t="s">
+        <v>222</v>
+      </c>
+      <c r="I4">
+        <v>599</v>
+      </c>
+      <c r="J4">
+        <v>76274</v>
+      </c>
+      <c r="K4">
+        <v>1625</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L27" si="1">K4-K3</f>
+        <v>87</v>
+      </c>
+      <c r="M4" t="s">
+        <v>219</v>
+      </c>
+      <c r="N4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>617</v>
+      </c>
+      <c r="C5">
+        <v>28528</v>
+      </c>
+      <c r="D5">
+        <v>80381</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>78761</v>
+      </c>
+      <c r="F5" t="s">
+        <v>219</v>
+      </c>
+      <c r="G5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I5">
+        <v>602</v>
+      </c>
+      <c r="J5">
+        <v>76352</v>
+      </c>
+      <c r="K5">
+        <v>78518</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>76893</v>
+      </c>
+      <c r="M5" t="s">
+        <v>219</v>
+      </c>
+      <c r="N5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>570</v>
+      </c>
+      <c r="C6">
+        <v>28532156</v>
+      </c>
+      <c r="D6">
+        <v>84318</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>3937</v>
+      </c>
+      <c r="G6" t="s">
+        <v>221</v>
+      </c>
+      <c r="I6">
+        <v>607</v>
+      </c>
+      <c r="J6">
+        <v>76353921</v>
+      </c>
+      <c r="K6">
+        <v>80840</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>2322</v>
+      </c>
+      <c r="M6">
+        <v>80840</v>
+      </c>
+      <c r="N6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>578</v>
+      </c>
+      <c r="C7">
+        <v>28532259</v>
+      </c>
+      <c r="D7">
+        <v>84421</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+      <c r="G7" t="s">
+        <v>224</v>
+      </c>
+      <c r="I7">
+        <v>570</v>
+      </c>
+      <c r="J7">
+        <v>76356688</v>
+      </c>
+      <c r="K7">
+        <v>83607</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>2767</v>
+      </c>
+      <c r="M7">
+        <v>83607</v>
+      </c>
+      <c r="N7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>671</v>
+      </c>
+      <c r="C8">
+        <v>28533513</v>
+      </c>
+      <c r="D8">
+        <v>85675</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1254</v>
+      </c>
+      <c r="G8" t="s">
+        <v>225</v>
+      </c>
+      <c r="I8">
+        <v>589</v>
+      </c>
+      <c r="J8">
+        <v>76356812</v>
+      </c>
+      <c r="K8">
+        <v>83731</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>124</v>
+      </c>
+      <c r="M8">
+        <v>83731</v>
+      </c>
+      <c r="N8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>676</v>
+      </c>
+      <c r="C9">
+        <v>28535904</v>
+      </c>
+      <c r="D9">
+        <v>88066</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>2391</v>
+      </c>
+      <c r="G9" t="s">
+        <v>226</v>
+      </c>
+      <c r="I9">
+        <v>673</v>
+      </c>
+      <c r="J9">
+        <v>76358071</v>
+      </c>
+      <c r="K9">
+        <v>84990</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>1259</v>
+      </c>
+      <c r="M9">
+        <v>84990</v>
+      </c>
+      <c r="N9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>700</v>
+      </c>
+      <c r="C10">
+        <v>28536210</v>
+      </c>
+      <c r="D10">
+        <v>88372</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>306</v>
+      </c>
+      <c r="G10" t="s">
+        <v>227</v>
+      </c>
+      <c r="I10">
+        <v>678</v>
+      </c>
+      <c r="J10">
+        <v>76360456</v>
+      </c>
+      <c r="K10">
+        <v>87375</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>2385</v>
+      </c>
+      <c r="M10">
+        <v>87375</v>
+      </c>
+      <c r="N10" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>710</v>
+      </c>
+      <c r="C11">
+        <v>28547337</v>
+      </c>
+      <c r="D11">
+        <v>99499</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>11127</v>
+      </c>
+      <c r="G11" t="s">
+        <v>167</v>
+      </c>
+      <c r="I11">
+        <v>702</v>
+      </c>
+      <c r="J11">
+        <v>76360766</v>
+      </c>
+      <c r="K11">
+        <v>87685</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>310</v>
+      </c>
+      <c r="M11">
+        <v>87685</v>
+      </c>
+      <c r="N11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>723</v>
+      </c>
+      <c r="C12">
+        <v>28547</v>
+      </c>
+      <c r="F12" t="s">
+        <v>220</v>
+      </c>
+      <c r="G12" t="s">
+        <v>228</v>
+      </c>
+      <c r="I12">
+        <v>712</v>
+      </c>
+      <c r="J12">
+        <v>76371895</v>
+      </c>
+      <c r="K12">
+        <v>98814</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>11129</v>
+      </c>
+      <c r="M12">
+        <v>98814</v>
+      </c>
+      <c r="N12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>901</v>
+      </c>
+      <c r="C13">
+        <v>28547</v>
+      </c>
+      <c r="D13">
+        <v>99778</v>
+      </c>
+      <c r="E13">
+        <f>D13-D11</f>
+        <v>279</v>
+      </c>
+      <c r="F13" t="s">
+        <v>219</v>
+      </c>
+      <c r="G13" t="s">
+        <v>229</v>
+      </c>
+      <c r="I13">
+        <v>725</v>
+      </c>
+      <c r="J13">
+        <v>76372</v>
+      </c>
+      <c r="M13" t="s">
+        <v>220</v>
+      </c>
+      <c r="N13" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>563</v>
+      </c>
+      <c r="C14">
+        <v>28547812</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>165</v>
+      </c>
+      <c r="I14">
+        <v>903</v>
+      </c>
+      <c r="J14">
+        <v>76372</v>
+      </c>
+      <c r="K14">
+        <v>99085</v>
+      </c>
+      <c r="L14">
+        <f>K14-K12</f>
+        <v>271</v>
+      </c>
+      <c r="M14" t="s">
+        <v>219</v>
+      </c>
+      <c r="N14" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>570</v>
+      </c>
+      <c r="C15">
+        <v>28549338</v>
+      </c>
+      <c r="D15">
+        <v>1536</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>1526</v>
+      </c>
+      <c r="G15" t="s">
+        <v>221</v>
+      </c>
+      <c r="I15">
+        <v>563</v>
+      </c>
+      <c r="J15">
+        <v>76372363</v>
+      </c>
+      <c r="K15">
+        <v>10</v>
+      </c>
+      <c r="M15">
+        <v>10</v>
+      </c>
+      <c r="N15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>599</v>
+      </c>
+      <c r="C16">
+        <v>28549</v>
+      </c>
+      <c r="D16">
+        <v>1618</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="F16" t="s">
+        <v>219</v>
+      </c>
+      <c r="G16" t="s">
+        <v>230</v>
+      </c>
+      <c r="I16">
+        <v>570</v>
+      </c>
+      <c r="J16">
+        <v>76373897</v>
+      </c>
+      <c r="K16">
+        <v>1544</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>1534</v>
+      </c>
+      <c r="M16">
+        <v>1544</v>
+      </c>
+      <c r="N16" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>602</v>
+      </c>
+      <c r="C17">
+        <v>28628</v>
+      </c>
+      <c r="D17">
+        <v>80340</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>78722</v>
+      </c>
+      <c r="F17" t="s">
+        <v>219</v>
+      </c>
+      <c r="G17" t="s">
+        <v>231</v>
+      </c>
+      <c r="I17">
+        <v>614</v>
+      </c>
+      <c r="J17">
+        <v>76374</v>
+      </c>
+      <c r="K17">
+        <v>1625</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="M17" t="s">
+        <v>219</v>
+      </c>
+      <c r="N17" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>570</v>
+      </c>
+      <c r="C18">
+        <v>28632041</v>
+      </c>
+      <c r="D18">
+        <v>84239</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>3899</v>
+      </c>
+      <c r="G18" t="s">
+        <v>221</v>
+      </c>
+      <c r="I18">
+        <v>618</v>
+      </c>
+      <c r="J18">
+        <v>76452</v>
+      </c>
+      <c r="K18">
+        <v>79011</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>77386</v>
+      </c>
+      <c r="M18" t="s">
+        <v>219</v>
+      </c>
+      <c r="N18" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>589</v>
+      </c>
+      <c r="C19">
+        <v>28632144</v>
+      </c>
+      <c r="D19">
+        <v>84342</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+      <c r="G19" t="s">
+        <v>224</v>
+      </c>
+      <c r="I19">
+        <v>623</v>
+      </c>
+      <c r="J19">
+        <v>76454127</v>
+      </c>
+      <c r="K19">
+        <v>81774</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>2763</v>
+      </c>
+      <c r="M19">
+        <v>81774</v>
+      </c>
+      <c r="N19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>671</v>
+      </c>
+      <c r="C20">
+        <v>28633398</v>
+      </c>
+      <c r="D20">
+        <v>85596</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>1254</v>
+      </c>
+      <c r="G20" t="s">
+        <v>225</v>
+      </c>
+      <c r="I20">
+        <v>570</v>
+      </c>
+      <c r="J20">
+        <v>76456942</v>
+      </c>
+      <c r="K20">
+        <v>84589</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>2815</v>
+      </c>
+      <c r="M20">
+        <v>84589</v>
+      </c>
+      <c r="N20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>676</v>
+      </c>
+      <c r="C21">
+        <v>28635796</v>
+      </c>
+      <c r="D21">
+        <v>87994</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>2398</v>
+      </c>
+      <c r="G21" t="s">
+        <v>226</v>
+      </c>
+      <c r="I21">
+        <v>578</v>
+      </c>
+      <c r="J21">
+        <v>76457065</v>
+      </c>
+      <c r="K21">
+        <v>84712</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="M21">
+        <v>84712</v>
+      </c>
+      <c r="N21" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>700</v>
+      </c>
+      <c r="C22">
+        <v>28636093</v>
+      </c>
+      <c r="D22">
+        <v>88291</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>297</v>
+      </c>
+      <c r="G22" t="s">
+        <v>227</v>
+      </c>
+      <c r="I22">
+        <v>673</v>
+      </c>
+      <c r="J22">
+        <v>76458321</v>
+      </c>
+      <c r="K22">
+        <v>85968</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>1256</v>
+      </c>
+      <c r="M22">
+        <v>85968</v>
+      </c>
+      <c r="N22" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>710</v>
+      </c>
+      <c r="C23">
+        <v>28647221</v>
+      </c>
+      <c r="D23">
+        <v>99419</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>11128</v>
+      </c>
+      <c r="G23" t="s">
+        <v>167</v>
+      </c>
+      <c r="I23">
+        <v>678</v>
+      </c>
+      <c r="J23">
+        <v>76460708</v>
+      </c>
+      <c r="K23">
+        <v>88355</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>2387</v>
+      </c>
+      <c r="M23">
+        <v>88355</v>
+      </c>
+      <c r="N23" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>723</v>
+      </c>
+      <c r="C24">
+        <v>28647</v>
+      </c>
+      <c r="F24" t="s">
+        <v>220</v>
+      </c>
+      <c r="G24" t="s">
+        <v>232</v>
+      </c>
+      <c r="I24">
+        <v>702</v>
+      </c>
+      <c r="J24">
+        <v>76461024</v>
+      </c>
+      <c r="K24">
+        <v>88671</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>316</v>
+      </c>
+      <c r="M24">
+        <v>88671</v>
+      </c>
+      <c r="N24" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>901</v>
+      </c>
+      <c r="C25">
+        <v>28647</v>
+      </c>
+      <c r="D25">
+        <v>99700</v>
+      </c>
+      <c r="E25">
+        <f>D25-D23</f>
+        <v>281</v>
+      </c>
+      <c r="F25" t="s">
+        <v>219</v>
+      </c>
+      <c r="G25" t="s">
+        <v>233</v>
+      </c>
+      <c r="I25">
+        <v>712</v>
+      </c>
+      <c r="J25">
+        <v>76472153</v>
+      </c>
+      <c r="K25">
+        <v>99800</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>11129</v>
+      </c>
+      <c r="M25">
+        <v>99800</v>
+      </c>
+      <c r="N25" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>725</v>
+      </c>
+      <c r="J26">
+        <v>76472</v>
+      </c>
+      <c r="M26" t="s">
+        <v>220</v>
+      </c>
+      <c r="N26" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>903</v>
+      </c>
+      <c r="J27">
+        <v>76472</v>
+      </c>
+      <c r="K27">
+        <v>100072</v>
+      </c>
+      <c r="L27">
+        <f>K27-K25</f>
+        <v>272</v>
+      </c>
+      <c r="M27" t="s">
+        <v>219</v>
+      </c>
+      <c r="N27" t="s">
+        <v>243</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B2:G25" xr:uid="{53319BE2-AD8D-4DE8-B2D8-8DC5219328F5}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>